--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3631714.539975816</v>
+        <v>3749018.14242541</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10880928.31117143</v>
+        <v>10367347.96096032</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7722091.920066468</v>
+        <v>7724746.986121997</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>290.0035889091394</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>246.413249978104</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -823,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>189.6120057093367</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>299.6055268728404</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>51.05287849019435</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>54.46079155833878</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>52.85805945030014</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>133.3600260369611</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.21975936930786</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>118.203910476409</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>209.6001127307728</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.6939784316956</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
-        <v>96.30437280318058</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>32.6033037181137</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
-        <v>141.0437126478466</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T9" t="n">
-        <v>193.5159300357765</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8328597960067</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.1123755586654</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>199.9161113155666</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0367585680516</v>
+        <v>109.7946950482236</v>
       </c>
       <c r="U10" t="n">
-        <v>194.5208491753484</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>76.28317487965494</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>118.2774686880305</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,22 +1578,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="D19" t="n">
-        <v>8.616048582069491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788180832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>106.3652565620428</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.13676080754331</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>20.89983420622057</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>89.67992556049168</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>34.44047701880829</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>114.7508296080967</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>109.090968037234</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1512.612574238668</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C2" t="n">
-        <v>1143.650057298256</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>1143.650057298256</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>757.8618047000118</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>346.8758999104043</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1998.405974129793</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1667.343086786222</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1314.574431516108</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1314.574431516108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>924.4350995402963</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1847865657769</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.1847865657769</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2013.317548404538</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1644.355031464126</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.089332857375</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>900.3010802591311</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>489.3151754695236</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>476.2677977463551</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>75.17723181374775</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>478.6443448337932</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>1031.457603079992</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
-        <v>1663.175414063304</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1857.509626955287</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2404.670831722364</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4604,13 +4606,13 @@
         <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2314.517639543142</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1941.051881282062</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,49 +4649,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>121.5508014837215</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>258.7803994994155</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>899.3257489665201</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.87014899353</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2116.306157746253</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2540.27392622709</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>339.8239063167927</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>545.0935070360306</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>1053.877663279709</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>1053.877663279709</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>1000.485684036982</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>1000.485684036982</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>1000.485684036982</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>745.8011958310949</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>456.3840257941342</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.0603304903455</v>
+        <v>998.4716139384161</v>
       </c>
       <c r="C8" t="n">
-        <v>863.0603304903455</v>
+        <v>998.4716139384161</v>
       </c>
       <c r="D8" t="n">
-        <v>863.0603304903455</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>477.2720778921012</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>66.28617310249359</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>133.7548135793021</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>304.1105785488651</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>965.8383331436728</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1396.720810192846</v>
+        <v>1218.1570159054</v>
       </c>
       <c r="N8" t="n">
-        <v>1714.20434025748</v>
+        <v>1845.464683965246</v>
       </c>
       <c r="O8" t="n">
-        <v>2377.651953127192</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2587.634037311183</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2577.751201648112</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.033916061473</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.033916061473</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.033916061473</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.265260791359</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.799502530279</v>
+        <v>1388.610945914228</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.660170554467</v>
+        <v>998.4716139384161</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>950.3768326837272</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C9" t="n">
-        <v>775.9238034026002</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D9" t="n">
-        <v>626.989393741349</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>467.7519387358935</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>321.2173807627785</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>184.1527560842981</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>86.87561183866111</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>82.66051509321036</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>471.7187628852834</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>689.1280442480033</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1356.672444275013</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1703.27091370045</v>
+        <v>1947.349985492879</v>
       </c>
       <c r="O9" t="n">
-        <v>2340.566881700241</v>
+        <v>2496.785994245602</v>
       </c>
       <c r="P9" t="n">
-        <v>2519.771872394146</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
-        <v>2589.646466441933</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R9" t="n">
-        <v>2589.646466441933</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S9" t="n">
-        <v>2447.178069827947</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T9" t="n">
-        <v>2251.707433428172</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U9" t="n">
-        <v>2023.593433634226</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V9" t="n">
-        <v>1788.441325402483</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W9" t="n">
-        <v>1534.203968674282</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X9" t="n">
-        <v>1326.352468468749</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y9" t="n">
-        <v>1118.592169703795</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>523.0787995902081</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>523.0787995902081</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>372.9621601778723</v>
       </c>
       <c r="E10" t="n">
+        <v>372.9621601778723</v>
+      </c>
+      <c r="F10" t="n">
+        <v>226.072212679962</v>
+      </c>
+      <c r="G10" t="n">
+        <v>226.072212679962</v>
+      </c>
+      <c r="H10" t="n">
+        <v>71.81756957972706</v>
+      </c>
+      <c r="I10" t="n">
+        <v>71.81756957972706</v>
+      </c>
+      <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="F10" t="n">
-        <v>53.94298182036445</v>
-      </c>
-      <c r="G10" t="n">
-        <v>53.94298182036445</v>
-      </c>
-      <c r="H10" t="n">
-        <v>53.94298182036445</v>
-      </c>
-      <c r="I10" t="n">
-        <v>53.94298182036445</v>
-      </c>
-      <c r="J10" t="n">
-        <v>58.31196334317251</v>
-      </c>
       <c r="K10" t="n">
-        <v>195.3283787968259</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
-        <v>426.1886520796821</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
-        <v>679.9875643521474</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N10" t="n">
-        <v>933.1863221810879</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O10" t="n">
-        <v>1151.040060928127</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P10" t="n">
-        <v>1313.930887593676</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q10" t="n">
-        <v>1343.272972525651</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1226.997845698716</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1025.062379723396</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>800.7828256142531</v>
+        <v>812.4959696271687</v>
       </c>
       <c r="U10" t="n">
-        <v>604.2971193765273</v>
+        <v>812.4959696271687</v>
       </c>
       <c r="V10" t="n">
-        <v>604.2971193765273</v>
+        <v>812.4959696271687</v>
       </c>
       <c r="W10" t="n">
-        <v>604.2971193765273</v>
+        <v>523.0787995902081</v>
       </c>
       <c r="X10" t="n">
-        <v>604.2971193765273</v>
+        <v>523.0787995902081</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>523.0787995902081</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,16 +5120,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951538</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.1395539230172</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C13" t="n">
-        <v>819.2033709951103</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>669.0867315827745</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
         <v>549.6145409888043</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794804</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5515,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>2978.613657539998</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>3606.211621094605</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>4158.121351333892</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>4581.74450082896</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378096</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D22" t="n">
-        <v>2655.833190378096</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E22" t="n">
-        <v>2655.833190378096</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
         <v>2337.686731866304</v>
@@ -5941,19 +5943,19 @@
         <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>4180.937199983467</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>3926.25271177758</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>3636.835541740619</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>3408.845990842602</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>3188.053411699072</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6068,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>3235.613758549116</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>3066.677575621209</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>2916.560936208873</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>2768.64784262648</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>2621.75789512857</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>2454.56179584345</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3417.262223379355</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6716,7 +6718,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1072.713683962606</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>3112.537432147379</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>2943.601249219472</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384021</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7488,16 +7490,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
         <v>1344.266747951538</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>286.0962634073653</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7628,25 +7630,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.221377756499</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>175.9033664000583</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8225,16 +8227,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>148.2422363886232</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>473.6238973478236</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.01734528517885</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>124.2370721809884</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>219.4103185607343</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.92441186131441</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>398.4658131694631</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>52.42364439457259</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>8.157046754056864</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>43.26340623007675</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>90.9636462189729</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>28.15649395853863</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="D19" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347504</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>179.8192178272013</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>265.2846401830236</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>50.61478728573221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>105.8542358274156</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>65.08115057384057</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>56.43317025503488</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>705305.786361319</v>
+        <v>727696.6921738412</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>686610.2641569524</v>
+        <v>705305.786361319</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>661712.9676115254</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710687</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710693</v>
-      </c>
       <c r="N2" t="n">
-        <v>779989.6813710694</v>
+        <v>766789.269705506</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710692</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>196446.3877966352</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>148514.7883929641</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>631730.7903618219</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26420,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>176266.9759012794</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>150514.8901349548</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>13668.3958297762</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.3958297762</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977618</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977619</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.3958297762</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682744</v>
@@ -26470,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>87562.0451708468</v>
-      </c>
-      <c r="D5" t="n">
-        <v>91342.48592376141</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699183</v>
+        <v>-102759.6913699186</v>
       </c>
       <c r="C6" t="n">
-        <v>319714.2725023074</v>
+        <v>487208.1878446265</v>
       </c>
       <c r="D6" t="n">
-        <v>389617.5169193894</v>
+        <v>331404.381750831</v>
       </c>
       <c r="E6" t="n">
-        <v>28258.41295309411</v>
+        <v>-111063.4880658907</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.203314916</v>
+        <v>659989.2033149161</v>
       </c>
       <c r="G6" t="n">
         <v>659989.2033149159</v>
       </c>
       <c r="H6" t="n">
+        <v>659989.2033149158</v>
+      </c>
+      <c r="I6" t="n">
+        <v>659989.2033149159</v>
+      </c>
+      <c r="J6" t="n">
+        <v>483565.9841223228</v>
+      </c>
+      <c r="K6" t="n">
+        <v>659989.2033149159</v>
+      </c>
+      <c r="L6" t="n">
+        <v>659989.2033149159</v>
+      </c>
+      <c r="M6" t="n">
+        <v>535780.6926068575</v>
+      </c>
+      <c r="N6" t="n">
+        <v>659989.2033149162</v>
+      </c>
+      <c r="O6" t="n">
+        <v>659989.2033149158</v>
+      </c>
+      <c r="P6" t="n">
         <v>659989.2033149161</v>
-      </c>
-      <c r="I6" t="n">
-        <v>659989.2033149158</v>
-      </c>
-      <c r="J6" t="n">
-        <v>483565.984122323</v>
-      </c>
-      <c r="K6" t="n">
-        <v>643729.4516937458</v>
-      </c>
-      <c r="L6" t="n">
-        <v>663157.169687378</v>
-      </c>
-      <c r="M6" t="n">
-        <v>538948.658979319</v>
-      </c>
-      <c r="N6" t="n">
-        <v>663157.1696873778</v>
-      </c>
-      <c r="O6" t="n">
-        <v>663157.1696873775</v>
-      </c>
-      <c r="P6" t="n">
-        <v>659989.2033149159</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>593.4761003380651</v>
-      </c>
-      <c r="D3" t="n">
-        <v>766.8908137745153</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26820,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>215.7324361209784</v>
       </c>
-      <c r="D3" t="n">
-        <v>173.4147134364502</v>
-      </c>
       <c r="E3" t="n">
-        <v>601.0846865671584</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450932</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>123.7805811116556</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>4.810917530185264</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>96.91099262725433</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>15.43535720237514</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>298.1880902272187</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>90.96025646459248</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>152.5078224498185</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>221.3230155837219</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.9012521798144</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>91.61937460340286</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>20.56279461179912</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0990146561703</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.6080614975539</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>149.93177552594</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>113.8623632556829</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>113.5782096725351</v>
       </c>
       <c r="U10" t="n">
-        <v>91.72274829782035</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712531</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840366</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182841</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.082978145827195</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H8" t="n">
-        <v>31.57354993595277</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I8" t="n">
-        <v>118.8565149670031</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J8" t="n">
-        <v>261.6639164044011</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K8" t="n">
-        <v>392.1663813172664</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L8" t="n">
-        <v>486.5170737476255</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M8" t="n">
-        <v>541.3439863484798</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N8" t="n">
-        <v>550.1034980053114</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O8" t="n">
-        <v>519.4471340677422</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P8" t="n">
-        <v>443.3361110926332</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q8" t="n">
-        <v>332.9269562451967</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R8" t="n">
-        <v>193.6611259528177</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>70.25336449803727</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T8" t="n">
-        <v>13.49573683335855</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2466382516661755</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.649538731514995</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H9" t="n">
-        <v>15.93107143331588</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I9" t="n">
-        <v>56.79332913330138</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J9" t="n">
-        <v>155.8452360331777</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K9" t="n">
-        <v>266.3643310446824</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L9" t="n">
-        <v>358.1597144896923</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M9" t="n">
-        <v>417.9554935071108</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N9" t="n">
-        <v>429.0175317548583</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O9" t="n">
-        <v>392.467226177605</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P9" t="n">
-        <v>314.9895495293854</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.5621721140896</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R9" t="n">
-        <v>102.4160977338872</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S9" t="n">
-        <v>30.63945845599123</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T9" t="n">
-        <v>6.648798659045088</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1085222849680918</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.382917860904864</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H10" t="n">
-        <v>12.29539698149961</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I10" t="n">
-        <v>41.58811167157536</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J10" t="n">
-        <v>97.77229276597384</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K10" t="n">
-        <v>160.6699114760378</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L10" t="n">
-        <v>205.6021699748922</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M10" t="n">
-        <v>216.7786606871142</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N10" t="n">
-        <v>211.6241486601053</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O10" t="n">
-        <v>195.4691536486257</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P10" t="n">
-        <v>167.2576292861663</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.8005128799518</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R10" t="n">
-        <v>62.18101581850412</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S10" t="n">
-        <v>24.10048672140566</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T10" t="n">
-        <v>5.90883086022987</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07543188332208356</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32075,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,31 +33262,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>489.2891832783074</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>572.868299221487</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>500.4415752611932</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,19 +34210,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>297.1808238847177</v>
       </c>
       <c r="L42" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>260.0950901760237</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>674.2872727545556</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.98395255990307</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>80.61801187771482</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>172.0765302722858</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>668.4118733280886</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>435.2348253021955</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>320.6904344087205</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>670.1491039088008</v>
+        <v>391.2982229212994</v>
       </c>
       <c r="P8" t="n">
-        <v>212.1031153373637</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.6212663707472</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>29.00760936651102</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>392.988129082902</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>219.6053347098181</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
+        <v>647.0155045122269</v>
+      </c>
+      <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="N9" t="n">
-        <v>350.0994640660976</v>
-      </c>
       <c r="O9" t="n">
-        <v>643.7333010098901</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>181.0151421150551</v>
+        <v>117.944549306884</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.58039802806806</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.41311264930107</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>138.4004196501549</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L10" t="n">
-        <v>233.1921952352083</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>256.3625376489548</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
-        <v>255.7563210393339</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>220.0542815626654</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P10" t="n">
-        <v>164.5361885510598</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.63846962825743</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,13 +35418,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35656,7 +35658,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35896,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,13 +36138,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36844,10 +36846,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>357.9474711949741</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>430.2720547770426</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790297</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193538</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>357.8453308167487</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="L42" t="n">
-        <v>140.6875824748321</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3749018.14242541</v>
+        <v>3744712.426049339</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>313.4020972507757</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>246.413249978104</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>73.31370764131945</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>189.6120057093367</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>51.05287849019435</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>54.46079155833878</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>206.3773460477727</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>133.3600260369611</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>326.1230146347445</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>73.9540350521815</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>109.7946950482236</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695477</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>76.28317487965494</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.3852063573442</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>155.1980648094029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>106.3652565620428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>20.89983420622057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>89.67992556049168</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>34.44047701880829</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74.20064764874429</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.7508296080967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>134.3852063573447</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>109.090968037234</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953135</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>924.4350995402963</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1998.405974129793</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1667.343086786222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1314.574431516108</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1314.574431516108</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>924.4350995402963</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.1847865657769</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="C4" t="n">
-        <v>507.1847865657769</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="D4" t="n">
-        <v>507.1847865657769</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>506.1616404812942</v>
       </c>
       <c r="F4" t="n">
         <v>359.2716929833838</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="W4" t="n">
-        <v>507.1847865657769</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="X4" t="n">
-        <v>507.1847865657769</v>
+        <v>654.0747340636873</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.1847865657769</v>
+        <v>654.0747340636873</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2314.517639543142</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1941.051881282062</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1550.91254930625</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,28 +4667,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.6104068172087</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>154.6104068172087</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>154.6104068172087</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>154.6104068172087</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W7" t="n">
-        <v>154.6104068172087</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>154.6104068172087</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>154.6104068172087</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>998.4716139384161</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>998.4716139384161</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
         <v>863.7645169313847</v>
@@ -4804,25 +4804,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1218.1570159054</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1845.464683965246</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914228</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1388.610945914228</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>998.4716139384161</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4889,19 +4889,19 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1947.349985492879</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2496.785994245602</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>523.0787995902081</v>
+        <v>423.447068407922</v>
       </c>
       <c r="C10" t="n">
-        <v>523.0787995902081</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>372.9621601778723</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>372.9621601778723</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>226.072212679962</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>812.4959696271687</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>812.4959696271687</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>812.4959696271687</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>523.0787995902081</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>523.0787995902081</v>
+        <v>825.8881123816918</v>
       </c>
       <c r="Y10" t="n">
-        <v>523.0787995902081</v>
+        <v>605.0955332381617</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5074,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.6979859831846</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>1327.139029956954</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>1106.346450813424</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3606.211621094605</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.404946868832</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4180.937199983467</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3926.25271177758</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3636.835541740619</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3408.845990842602</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3188.053411699072</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.248478625014</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>266.4891497944943</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3235.613758549116</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3066.677575621209</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>2916.560936208873</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2768.64784262648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2621.75789512857</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2454.56179584345</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559846</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3638.054802522885</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3638.054802522885</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3417.262223379355</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3112.537432147379</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2943.601249219472</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,7 +7192,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>251.562654109227</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876688</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>432.9862109052757</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>286.0962634073653</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>219.4103185607343</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>8.157046754056864</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>90.9636462189729</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.44677382459307</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.04875628922497</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>179.8192178272013</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>265.2846401830236</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>50.61478728573221</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>105.8542358274156</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>71.22040037418695</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.08115057384057</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.44677382459261</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>56.43317025503488</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808063</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080587</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682809</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682798</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699186</v>
+        <v>-102759.6913699183</v>
       </c>
       <c r="C6" t="n">
-        <v>487208.1878446265</v>
+        <v>487208.187844626</v>
       </c>
       <c r="D6" t="n">
-        <v>331404.381750831</v>
+        <v>331404.3817508311</v>
       </c>
       <c r="E6" t="n">
-        <v>-111063.4880658907</v>
+        <v>-111410.8673202473</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.824060559</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.2033149159</v>
+        <v>659641.8240605592</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.2033149158</v>
+        <v>659641.8240605594</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.2033149159</v>
+        <v>659641.8240605593</v>
       </c>
       <c r="J6" t="n">
-        <v>483565.9841223228</v>
+        <v>483218.6048679662</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.2033149159</v>
+        <v>659641.8240605594</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.2033149159</v>
+        <v>659641.8240605594</v>
       </c>
       <c r="M6" t="n">
-        <v>535780.6926068575</v>
+        <v>535433.3133525003</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.2033149162</v>
+        <v>659641.824060559</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.2033149158</v>
+        <v>659641.8240605588</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.2033149161</v>
+        <v>659641.8240605592</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>69.33174441270489</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>4.810917530185264</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>138.8318313086995</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>96.91099262725433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>298.1880902272187</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>90.96025646459248</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>18.65775941031154</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>221.3230155837219</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>43.60808604372448</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>93.29278604644634</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>113.5782096725351</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31840,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>362.8934092184361</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>489.2891832783074</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,25 +33502,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>572.868299221487</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>500.4415752611932</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,22 +34207,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>297.1808238847177</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>391.2982229212994</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>117.944549306884</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88662398579324</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949741</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>430.2720547770426</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>357.8453308167487</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3744712.426049339</v>
+        <v>3746472.956352126</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.4020972507757</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>313.4020972507757</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>73.31370764131945</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>178.8431813531608</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>79.48734420188163</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>206.3773460477727</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>229.1052045309027</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>73.9540350521815</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>49.94675160484172</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695477</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>176.5022639606271</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>206.5509998577711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266593</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4372,10 +4372,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,16 +4424,16 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>654.0747340636873</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>654.0747340636873</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>490.2500993552354</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1411.426226205003</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1042.463709264591</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>684.1980106578405</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>298.4097580595963</v>
       </c>
       <c r="F8" t="n">
         <v>66.99035954353293</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2188.165398244936</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>2188.165398244936</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>1798.026066269124</v>
       </c>
     </row>
     <row r="9">
@@ -4941,13 +4941,13 @@
         <v>423.447068407922</v>
       </c>
       <c r="C10" t="n">
-        <v>348.7460229006679</v>
+        <v>254.510885480015</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>104.3942460676793</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5263,16 +5263,16 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5281,7 +5281,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,16 +5299,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466572</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5418,22 +5418,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5506,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,13 +5521,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5758,16 +5758,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
         <v>402.7245934908939</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6129,16 +6129,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6208,16 +6208,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6366,19 +6366,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6645,7 +6645,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
         <v>2254.869721166297</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6885,10 +6885,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6946,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7323,7 +7323,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,19 +7493,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="44">
@@ -7730,19 +7730,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.0655846733346</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.913349582082</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1210.496179545122</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>982.5066286471044</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>761.7140495035743</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>3.329716221310235</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>10.85445046951719</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="G2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
         <v>766789.2697055062</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055062</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.2697055062</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055059</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925928</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682787</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5677.536566682809</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682798</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-102759.6913699183</v>
       </c>
       <c r="C6" t="n">
-        <v>487208.187844626</v>
+        <v>487208.1878446263</v>
       </c>
       <c r="D6" t="n">
-        <v>331404.3817508311</v>
+        <v>331404.3817508312</v>
       </c>
       <c r="E6" t="n">
-        <v>-111410.8673202473</v>
+        <v>-111098.2259913259</v>
       </c>
       <c r="F6" t="n">
-        <v>659641.824060559</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="G6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="H6" t="n">
-        <v>659641.8240605594</v>
+        <v>659954.4653894808</v>
       </c>
       <c r="I6" t="n">
-        <v>659641.8240605593</v>
+        <v>659954.4653894801</v>
       </c>
       <c r="J6" t="n">
-        <v>483218.6048679662</v>
+        <v>483531.2461968876</v>
       </c>
       <c r="K6" t="n">
-        <v>659641.8240605594</v>
+        <v>659954.4653894807</v>
       </c>
       <c r="L6" t="n">
-        <v>659641.8240605594</v>
+        <v>659954.4653894805</v>
       </c>
       <c r="M6" t="n">
-        <v>535433.3133525003</v>
+        <v>535745.9546814219</v>
       </c>
       <c r="N6" t="n">
-        <v>659641.824060559</v>
+        <v>659954.4653894807</v>
       </c>
       <c r="O6" t="n">
-        <v>659641.8240605588</v>
+        <v>659954.4653894807</v>
       </c>
       <c r="P6" t="n">
-        <v>659641.8240605592</v>
+        <v>659954.4653894805</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.33174441270489</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>56.32900342769335</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8318313086995</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>203.8906603103198</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27672,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>100.3446359800557</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>18.65775941031154</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>177.7708412108087</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>93.29278604644634</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>96.48721104172745</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.224832392215704e-13</v>
       </c>
     </row>
     <row r="21">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31849,7 +31849,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157701</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34213,22 +34213,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34450,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113902</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34465,7 +34465,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937518</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37861,22 +37861,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370312</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38113,7 +38113,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
